--- a/biology/Botanique/Matthiola_incana/Matthiola_incana.xlsx
+++ b/biology/Botanique/Matthiola_incana/Matthiola_incana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grande giroflée
 La grande giroflée (Matthiola incana) ou giroflée des jardins  ou giroflée des fenêtres est une espèce de plantes annuelles ou bisannuelles hémicryptophytes, de la famille des Brassicacées, originaire du sud de l'Europe.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Matthiola annua Sweet
 Cheiranthus incanus L.
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante haute d'une cinquantaine de centimètres.
 Feuilles lancéolées non lobées
@@ -583,7 +599,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Rochers du littoral en Europe occidentale et méditerranéenne.
 </t>
@@ -614,7 +632,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une plante cultivée à des fins ornementales avec de nombreuses variétés.
 </t>
